--- a/KS5700.xlsx
+++ b/KS5700.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolon\Desktop\git-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B901F3E-1AE0-4B73-99E0-CC5252646819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DF9201-1B49-4243-A0B3-24B5393A454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="219">
   <si>
     <t>5700</t>
   </si>
@@ -713,6 +713,22 @@
   </si>
   <si>
     <t>23.03.13 현천호 (재고 두개중 한 개만 사업자판매 등록)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsfsfdsfgfdff</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>hfhfgh</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>홓롤호</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsfsdf</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -1318,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+      <selection activeCell="Q59" sqref="Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -5353,6 +5369,22 @@
       </c>
       <c r="W57" s="19" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="E59" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I60" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
